--- a/medicine/Enfance/Association_nationale_des_conseils_d’enfants_et_de_jeunes/Association_nationale_des_conseils_d’enfants_et_de_jeunes.xlsx
+++ b/medicine/Enfance/Association_nationale_des_conseils_d’enfants_et_de_jeunes/Association_nationale_des_conseils_d’enfants_et_de_jeunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_nationale_des_conseils_d%E2%80%99enfants_et_de_jeunes</t>
+          <t>Association_nationale_des_conseils_d’enfants_et_de_jeunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association nationale des conseils d’enfants et de jeunes (ANACEJ) est un réseau national d'acteurs et d'élus enfance jeunesse. Elle a été créée en 1991 pour promouvoir la participation des enfants et des jeunes à la décision publique et accompagner les collectivités territoriales dans la mise en place de ces démarches. Elle s’adresse à différents publics : enfants, jeunes, professionnels, élus locaux et militants associatifs ainsi qu’aux différents niveaux de territoires. Elle a pour vocation de promouvoir la participation des enfants et des jeunes à la décision publique et leur concertation au niveau local avec les élus et d'accompagner les collectivités locales dans la mise en place d’instances de participation des jeunes. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_nationale_des_conseils_d%E2%80%99enfants_et_de_jeunes</t>
+          <t>Association_nationale_des_conseils_d’enfants_et_de_jeunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Anacej est née en 1991 de la fusion de deux associations : la Convention des villes pour les conseils de jeunes (CVCJ) et l'Association nationale des Conseils Municipaux d'Enfants (ANCME)[1]. 
-Le premier conseil municipal des enfants « moderne » a vu le jour à Schiltigheim (Bas-Rhin) sous la mandature du maire Alfred Muller[2].  
-En 1944, André Basdevant, Membre du Conseil national de la Résistance soumettait déjà l'idée des conseils municipaux de jeunes dans toutes les communes, dans un rapport au Gouvernement provisoire de la République française à Alger. Cette proposition restera sans suite, même si de telles structures commenceront à voir le jour en France entre 1963 et 1967[3]. En effet, différentes expérimentations plus anciennes avaient été menées de 1963 à 1967 dans les villes de Sedan, Cholet, Saint-Lô, Laval... par exemple[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Anacej est née en 1991 de la fusion de deux associations : la Convention des villes pour les conseils de jeunes (CVCJ) et l'Association nationale des Conseils Municipaux d'Enfants (ANCME). 
+Le premier conseil municipal des enfants « moderne » a vu le jour à Schiltigheim (Bas-Rhin) sous la mandature du maire Alfred Muller.  
+En 1944, André Basdevant, Membre du Conseil national de la Résistance soumettait déjà l'idée des conseils municipaux de jeunes dans toutes les communes, dans un rapport au Gouvernement provisoire de la République française à Alger. Cette proposition restera sans suite, même si de telles structures commenceront à voir le jour en France entre 1963 et 1967. En effet, différentes expérimentations plus anciennes avaient été menées de 1963 à 1967 dans les villes de Sedan, Cholet, Saint-Lô, Laval... par exemple.
 À la suite de la création de conseils d'enfants et de jeunes dans les années 1980, ces deux associations se sont créées pour rassembler ces expériences et leurs acteurs : élus, militants…
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_nationale_des_conseils_d%E2%80%99enfants_et_de_jeunes</t>
+          <t>Association_nationale_des_conseils_d’enfants_et_de_jeunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Projet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Anacej vise à agir en faveur de la participation des jeunes aux décisions publiques pour les territoires sur lesquels ils sont acteurs comme habitants, étudiants ou travailleurs.
 Son projet est donc de promouvoir la participation des enfants et des jeunes à la décision publique et d'accompagner les collectivités territoriales dans la mise en place d’instances et de politiques pour cela.
